--- a/www/IndicatorsPerCountry/Ecuador_CopperProduction_TerritorialRef_1946_2012_CCode_218.xlsx
+++ b/www/IndicatorsPerCountry/Ecuador_CopperProduction_TerritorialRef_1946_2012_CCode_218.xlsx
@@ -108,13 +108,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Ecuador_CopperProduction_TerritorialRef_1946_2012_CCode_218.xlsx
+++ b/www/IndicatorsPerCountry/Ecuador_CopperProduction_TerritorialRef_1946_2012_CCode_218.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="33">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,46 +39,43 @@
     <t>0</t>
   </si>
   <si>
-    <t>7.7</t>
+    <t>0.2</t>
   </si>
   <si>
-    <t>14.9</t>
+    <t>0.3</t>
   </si>
   <si>
-    <t>21.8</t>
+    <t>0.4</t>
   </si>
   <si>
-    <t>20.2</t>
+    <t>2</t>
   </si>
   <si>
-    <t>6.6</t>
+    <t>1</t>
   </si>
   <si>
-    <t>9.4</t>
+    <t>0.8</t>
   </si>
   <si>
-    <t>2.8</t>
+    <t>1.2</t>
   </si>
   <si>
-    <t>5.031</t>
+    <t>0.349</t>
   </si>
   <si>
-    <t>31.956</t>
+    <t>0.1</t>
   </si>
   <si>
-    <t>33.073</t>
+    <t>0.242</t>
   </si>
   <si>
-    <t>35</t>
+    <t>0.7</t>
   </si>
   <si>
-    <t>37</t>
+    <t>1.4</t>
   </si>
   <si>
-    <t>35.281</t>
-  </si>
-  <si>
-    <t>37.67</t>
+    <t>1.8</t>
   </si>
   <si>
     <t>Description</t>
@@ -4310,7 +4307,7 @@
         <v>1970.0</v>
       </c>
       <c r="E244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245">
@@ -4327,7 +4324,7 @@
         <v>1971.0</v>
       </c>
       <c r="E245" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246">
@@ -4344,7 +4341,7 @@
         <v>1972.0</v>
       </c>
       <c r="E246" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
@@ -4361,7 +4358,7 @@
         <v>1973.0</v>
       </c>
       <c r="E247" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248">
@@ -4378,7 +4375,7 @@
         <v>1974.0</v>
       </c>
       <c r="E248" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="249">
@@ -4395,7 +4392,7 @@
         <v>1975.0</v>
       </c>
       <c r="E249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250">
@@ -4412,7 +4409,7 @@
         <v>1976.0</v>
       </c>
       <c r="E250" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251">
@@ -4429,7 +4426,7 @@
         <v>1977.0</v>
       </c>
       <c r="E251" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252">
@@ -4446,7 +4443,7 @@
         <v>1978.0</v>
       </c>
       <c r="E252" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253">
@@ -4463,7 +4460,7 @@
         <v>1979.0</v>
       </c>
       <c r="E253" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254">
@@ -4480,7 +4477,7 @@
         <v>1980.0</v>
       </c>
       <c r="E254" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255">
@@ -4497,7 +4494,7 @@
         <v>1981.0</v>
       </c>
       <c r="E255" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256">
@@ -4514,7 +4511,7 @@
         <v>1982.0</v>
       </c>
       <c r="E256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257">
@@ -4531,7 +4528,7 @@
         <v>1983.0</v>
       </c>
       <c r="E257" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258">
@@ -4548,7 +4545,7 @@
         <v>1984.0</v>
       </c>
       <c r="E258" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259">
@@ -4565,7 +4562,7 @@
         <v>1985.0</v>
       </c>
       <c r="E259" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="260">
@@ -4701,7 +4698,7 @@
         <v>1993.0</v>
       </c>
       <c r="E267" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268">
@@ -4718,7 +4715,7 @@
         <v>1994.0</v>
       </c>
       <c r="E268" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="269">
@@ -4735,7 +4732,7 @@
         <v>1995.0</v>
       </c>
       <c r="E269" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="270">
@@ -4752,7 +4749,7 @@
         <v>1996.0</v>
       </c>
       <c r="E270" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="271">
@@ -4769,7 +4766,7 @@
         <v>1997.0</v>
       </c>
       <c r="E271" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="272">
@@ -4786,7 +4783,7 @@
         <v>1998.0</v>
       </c>
       <c r="E272" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273">
@@ -4803,7 +4800,7 @@
         <v>1999.0</v>
       </c>
       <c r="E273" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="274">
@@ -4820,7 +4817,7 @@
         <v>2000.0</v>
       </c>
       <c r="E274" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="275">
@@ -4837,7 +4834,7 @@
         <v>2001.0</v>
       </c>
       <c r="E275" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276">
@@ -4854,7 +4851,7 @@
         <v>2002.0</v>
       </c>
       <c r="E276" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="277">
@@ -4871,7 +4868,7 @@
         <v>2003.0</v>
       </c>
       <c r="E277" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="278">
@@ -4888,7 +4885,7 @@
         <v>2004.0</v>
       </c>
       <c r="E278" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279">
@@ -4922,7 +4919,7 @@
         <v>2006.0</v>
       </c>
       <c r="E280" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281">
@@ -4939,7 +4936,7 @@
         <v>2007.0</v>
       </c>
       <c r="E281" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282">
@@ -4956,7 +4953,7 @@
         <v>2008.0</v>
       </c>
       <c r="E282" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="283">
@@ -4973,7 +4970,7 @@
         <v>2009.0</v>
       </c>
       <c r="E283" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284">
@@ -4990,7 +4987,7 @@
         <v>2010.0</v>
       </c>
       <c r="E284" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="285">
@@ -5007,7 +5004,7 @@
         <v>2011.0</v>
       </c>
       <c r="E285" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="286">
@@ -5024,7 +5021,7 @@
         <v>2012.0</v>
       </c>
       <c r="E286" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5042,50 +5039,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
